--- a/Baseball/(4) Output/MLB 2024 Season Projections - 2024-03-25.xlsx
+++ b/Baseball/(4) Output/MLB 2024 Season Projections - 2024-03-25.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smben\Google Drive\Analytics\Forecasting\Baseball\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smben\Google Drive\Analytics\BeyondTheScore\Baseball\(4) Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CFB51-E7C2-46BF-B0F5-604A8B49997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EE667-4819-4898-B927-A4ADC44E4590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5722" yWindow="-8" windowWidth="16875" windowHeight="10433" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{3A420260-2ED9-4C6F-A033-29D6D271C643}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{3A420260-2ED9-4C6F-A033-29D6D271C643}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Formatted" sheetId="2" r:id="rId2"/>
     <sheet name="vs Last Season" sheetId="3" r:id="rId3"/>
+    <sheet name="Post-Season Diagnostics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Team</t>
   </si>
@@ -363,6 +386,30 @@
   </si>
   <si>
     <t>Orioles</t>
+  </si>
+  <si>
+    <t>Actual_Wins</t>
+  </si>
+  <si>
+    <t>Actual_Losses</t>
+  </si>
+  <si>
+    <t>Actual_WP</t>
+  </si>
+  <si>
+    <t>W_Diff</t>
+  </si>
+  <si>
+    <t>WP_Diff</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>St.Dev Prediced</t>
+  </si>
+  <si>
+    <t>St. Dev Actual</t>
   </si>
 </sst>
 </file>
@@ -741,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="K11" sqref="K11"/>
@@ -1958,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8B16BF-984A-4FE7-B839-570E62A79506}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
     <sheetView workbookViewId="1">
@@ -1998,7 +2045,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="7">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D31" si="0">B2-C2</f>
         <v>21.700000000000003</v>
       </c>
       <c r="E2" s="11">
@@ -2018,11 +2065,11 @@
         <v>72</v>
       </c>
       <c r="D3" s="7">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>14.400000000000006</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E31" si="0">(B3-C3)/C3</f>
+        <f t="shared" ref="E3:E31" si="1">(B3-C3)/C3</f>
         <v>0.20000000000000007</v>
       </c>
     </row>
@@ -2037,11 +2084,11 @@
         <v>71</v>
       </c>
       <c r="D4" s="7">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18309859154929578</v>
       </c>
     </row>
@@ -2056,11 +2103,11 @@
         <v>50</v>
       </c>
       <c r="D5" s="7">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>11.200000000000003</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22400000000000006</v>
       </c>
     </row>
@@ -2075,11 +2122,11 @@
         <v>59</v>
       </c>
       <c r="D6" s="7">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>10.299999999999997</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17457627118644062</v>
       </c>
     </row>
@@ -2094,11 +2141,11 @@
         <v>75</v>
       </c>
       <c r="D7" s="7">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>8.4000000000000057</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11200000000000007</v>
       </c>
     </row>
@@ -2113,11 +2160,11 @@
         <v>82</v>
       </c>
       <c r="D8" s="7">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>7.7999999999999972</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5121951219512155E-2</v>
       </c>
     </row>
@@ -2132,11 +2179,11 @@
         <v>87</v>
       </c>
       <c r="D9" s="7">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5862068965517171E-2</v>
       </c>
     </row>
@@ -2151,11 +2198,11 @@
         <v>76</v>
       </c>
       <c r="D10" s="7">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1052631578947437E-2</v>
       </c>
     </row>
@@ -2170,11 +2217,11 @@
         <v>73</v>
       </c>
       <c r="D11" s="7">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>3.2999999999999972</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5205479452054755E-2</v>
       </c>
     </row>
@@ -2189,11 +2236,11 @@
         <v>79</v>
       </c>
       <c r="D12" s="7">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2784810126582244E-2</v>
       </c>
     </row>
@@ -2208,11 +2255,11 @@
         <v>78</v>
       </c>
       <c r="D13" s="7">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666632E-2</v>
       </c>
     </row>
@@ -2227,11 +2274,11 @@
         <v>90</v>
       </c>
       <c r="D14" s="7">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.3333333333333019E-3</v>
       </c>
     </row>
@@ -2246,11 +2293,11 @@
         <v>83</v>
       </c>
       <c r="D15" s="7">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.638554216867436E-3</v>
       </c>
     </row>
@@ -2265,11 +2312,11 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>-0.90000000000000568</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0000000000000063E-2</v>
       </c>
     </row>
@@ -2284,11 +2331,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.01</v>
       </c>
     </row>
@@ -2303,11 +2350,11 @@
         <v>61</v>
       </c>
       <c r="D18" s="7">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>-1.1000000000000014</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8032786885245924E-2</v>
       </c>
     </row>
@@ -2322,11 +2369,11 @@
         <v>76</v>
       </c>
       <c r="D19" s="7">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>-1.9000000000000057</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.5000000000000074E-2</v>
       </c>
     </row>
@@ -2341,11 +2388,11 @@
         <v>84</v>
       </c>
       <c r="D20" s="7">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>-2.0999999999999943</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.4999999999999932E-2</v>
       </c>
     </row>
@@ -2360,11 +2407,11 @@
         <v>82</v>
       </c>
       <c r="D21" s="7">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>-3.2999999999999972</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.0243902439024357E-2</v>
       </c>
     </row>
@@ -2379,11 +2426,11 @@
         <v>104</v>
       </c>
       <c r="D22" s="7">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>-3.5999999999999943</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.4615384615384562E-2</v>
       </c>
     </row>
@@ -2398,11 +2445,11 @@
         <v>88</v>
       </c>
       <c r="D23" s="7">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>-3.9000000000000057</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.4318181818181882E-2</v>
       </c>
     </row>
@@ -2417,11 +2464,11 @@
         <v>78</v>
       </c>
       <c r="D24" s="7">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>-4.7999999999999972</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.15384615384615E-2</v>
       </c>
     </row>
@@ -2436,11 +2483,11 @@
         <v>89</v>
       </c>
       <c r="D25" s="7">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.6179775280898875E-2</v>
       </c>
     </row>
@@ -2455,11 +2502,11 @@
         <v>82</v>
       </c>
       <c r="D26" s="7">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>-6.5</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.926829268292683E-2</v>
       </c>
     </row>
@@ -2474,11 +2521,11 @@
         <v>84</v>
       </c>
       <c r="D27" s="7">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>-6.7000000000000028</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.9761904761904798E-2</v>
       </c>
     </row>
@@ -2493,11 +2540,11 @@
         <v>92</v>
       </c>
       <c r="D28" s="7">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>-8.9000000000000057</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.6739130434782675E-2</v>
       </c>
     </row>
@@ -2512,11 +2559,11 @@
         <v>99</v>
       </c>
       <c r="D29" s="7">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
@@ -2531,11 +2578,11 @@
         <v>71</v>
       </c>
       <c r="D30" s="7">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>-12.899999999999999</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.1816901408450704</v>
       </c>
     </row>
@@ -2550,11 +2597,11 @@
         <v>101</v>
       </c>
       <c r="D31" s="7">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>-14.5</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.14356435643564355</v>
       </c>
     </row>
@@ -2577,4 +2624,1108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72F1FB5-43E6-4919-829A-84963B941CC9}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100.4</v>
+      </c>
+      <c r="C2">
+        <v>61.6</v>
+      </c>
+      <c r="D2">
+        <v>0.62</v>
+      </c>
+      <c r="E2">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <f>162-E2</f>
+        <v>73</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/162</f>
+        <v>0.54938271604938271</v>
+      </c>
+      <c r="H2">
+        <f>E2-B2</f>
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2-D2</f>
+        <v>-7.0617283950617282E-2</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">AVERAGE(ABS(H2:H31))</f>
+        <v>7.3733333333333348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>98</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="0">162-E3</f>
+        <v>64</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G31" si="1">E3/162</f>
+        <v>0.60493827160493829</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="2">E3-B3</f>
+        <v>-1</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I31" si="3">G3-D3</f>
+        <v>-6.061728395061694E-3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>93.6</v>
+      </c>
+      <c r="C4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D4">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E4">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50617283950617287</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-11.599999999999994</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.1827160493827091E-2</v>
+      </c>
+      <c r="K4">
+        <f>_xlfn.STDEV.P(B2:B31)</f>
+        <v>9.9173249081257939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.1172839506172916E-2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>89.8</v>
+      </c>
+      <c r="C6">
+        <v>72.2</v>
+      </c>
+      <c r="D6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58024691358024694</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6246913580246889E-2</v>
+      </c>
+      <c r="K6">
+        <f>_xlfn.STDEV.P(E2:E31)</f>
+        <v>12.25964472930961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>89.7</v>
+      </c>
+      <c r="C7">
+        <v>72.3</v>
+      </c>
+      <c r="D7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5864197530864198</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2419753086419756E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>89.1</v>
+      </c>
+      <c r="C8">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54320987654320985</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.790123456790198E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>86.5</v>
+      </c>
+      <c r="C9">
+        <v>75.5</v>
+      </c>
+      <c r="D9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E9">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56172839506172845</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7728395061728417E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>86.4</v>
+      </c>
+      <c r="C10">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E10">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-8.4000000000000057</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.2518518518518575E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>84.1</v>
+      </c>
+      <c r="C11">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D11">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52469135802469136</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6913580246913398E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E12">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4567901234567901</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.2209876543209919E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E13">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51234567901234573</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.6543209876542821E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>83.4</v>
+      </c>
+      <c r="C14">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D14">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E14">
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54938271604938271</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>3.43827160493827E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>83.1</v>
+      </c>
+      <c r="C15">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D15">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E15">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>6.1074074074074058E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>82.2</v>
+      </c>
+      <c r="C16">
+        <v>79.8</v>
+      </c>
+      <c r="D16">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E16">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51234567901234573</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3456790123457276E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C17">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D17">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E17">
+        <v>89</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54938271604938271</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3382716049382708E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C18">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D18">
+        <v>0.502</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5679012345679012</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5901234567901201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>80.8</v>
+      </c>
+      <c r="C19">
+        <v>81.2</v>
+      </c>
+      <c r="D19">
+        <v>0.499</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.172839506172866E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>79.3</v>
+      </c>
+      <c r="C20">
+        <v>82.7</v>
+      </c>
+      <c r="D20">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E20">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>78.7</v>
+      </c>
+      <c r="C21">
+        <v>83.3</v>
+      </c>
+      <c r="D21">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E21">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8074074074074082E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>77.7</v>
+      </c>
+      <c r="C22">
+        <v>84.3</v>
+      </c>
+      <c r="D22">
+        <v>0.48</v>
+      </c>
+      <c r="E22">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53086419753086422</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0864197530864241E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>77.3</v>
+      </c>
+      <c r="C23">
+        <v>84.7</v>
+      </c>
+      <c r="D23">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="E23">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38271604938271603</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-15.299999999999997</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.4283950617283951E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>76.3</v>
+      </c>
+      <c r="C24">
+        <v>85.7</v>
+      </c>
+      <c r="D24">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E24">
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-13.299999999999997</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>-8.2111111111111079E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>75.5</v>
+      </c>
+      <c r="C25">
+        <v>86.5</v>
+      </c>
+      <c r="D25">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E25">
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47530864197530864</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>9.308641975308618E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="C26">
+        <v>87.9</v>
+      </c>
+      <c r="D26">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46913580246913578</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1135802469135758E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>73.2</v>
+      </c>
+      <c r="C27">
+        <v>88.8</v>
+      </c>
+      <c r="D27">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E27">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53086419753086422</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8864197530864211E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>69.3</v>
+      </c>
+      <c r="C28">
+        <v>92.7</v>
+      </c>
+      <c r="D28">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37654320987654322</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-8.2999999999999972</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.1456790123456775E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>61.2</v>
+      </c>
+      <c r="C29">
+        <v>100.8</v>
+      </c>
+      <c r="D29">
+        <v>0.378</v>
+      </c>
+      <c r="E29">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7925925925925927E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>59.9</v>
+      </c>
+      <c r="C30">
+        <v>102.1</v>
+      </c>
+      <c r="D30">
+        <v>0.37</v>
+      </c>
+      <c r="E30">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25308641975308643</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.11691358024691356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>58.1</v>
+      </c>
+      <c r="C31">
+        <v>103.9</v>
+      </c>
+      <c r="D31">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E31">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43827160493827161</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>8.0271604938271623E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D31 E7 E14 E28 E3:E4 E17:E19 E21:E23 E30:E31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>